--- a/maj-IG-JDV_J264/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/maj-IG-JDV_J264/ig/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T12:40:28+00:00</t>
+    <t>2024-06-18T13:51:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
